--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3958.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3958.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.229470271483013</v>
+        <v>0.6332324147224426</v>
       </c>
       <c r="B1">
-        <v>2.319267191383534</v>
+        <v>1.977708220481873</v>
       </c>
       <c r="C1">
-        <v>6.572914948358416</v>
+        <v>3.415624380111694</v>
       </c>
       <c r="D1">
-        <v>3.273446832836256</v>
+        <v>1.724713325500488</v>
       </c>
       <c r="E1">
-        <v>1.382671711917981</v>
+        <v>0.748962938785553</v>
       </c>
     </row>
   </sheetData>
